--- a/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
   <si>
     <t>key</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Позачергові вибори народних депутатів Верховної Ради України</t>
-  </si>
-  <si>
-    <t>Підписання угоди про пере  мирр’я Мінськ 2</t>
   </si>
   <si>
     <t>Дебальцівський котел</t>
@@ -571,6 +568,30 @@
   </si>
   <si>
     <t>More…</t>
+  </si>
+  <si>
+    <t>Того дня депутати ухвалили такі закони:     "Про внесення змін до Закону України "Про судоустрій і статус суддів" та процесуальних законів щодо додаткових заходів захисту безпеки громадян" (проект Закону №3879 від 14.01.2014 р.);     "Про внесення змін до Кримінального процесуального кодексу України (щодо заочного кримінального провадження) " (проект Закону № 3587 від 08.11.2013 р.);     "Про внесення змін до деяких законодавчих актів України (щодо відповідальності за вчинення адміністративних правопорушень під час проведення футбольних матчів)" (проект Закону № 3837 від 27.12.2013 р.);     "Про внесення змін до деяких законодавчих актів України щодо відповідальності за адміністративні правопорушення у сфері забезпечення безпеки дорожнього руху, зафіксовані в автоматичному режимі" (проект Закону № 3855 від 09.01.2014 р.);     "Про внесення змін до Регламенту Верховної Ради України" (проект Закону №3883 від 14.01.2014 р.);     "Про внесення змін до статті 297 Кримінального кодексу України (щодо відповідальності за осквернення або руйнування пам'ятників, споруджених в пам'ять, тих хто боровся проти нацизму в роки Другої світової війни - радянських воїнів-визволителів, учасників партизанського руху, підпільників, жертв нацистських переслідувань, а також воїнів-інтернаціоналістів та миротворців) " (проект Закону № 2178а від 30.05.2013 р.);     "Про внесення змін до Кримінального кодексу України щодо відповідальності за заперечення чи виправдання злочинів фашизму" (проект Закону № 2179а від 30.05.2013 р.);     "Про внесення зміни до Закону України "Про безоплатну правову допомогу" (щодо відтермінування набрання чинності положень пункту 6 розділу VI "Прикінцеві та перехідні положення")" (проект Закону № 3792 від 19.12.2013 р.);     "Про внесення зміни до статті 197 Податкового кодексу України щодо звільнення від обкладення податком на додану вартість операцій із ввезення на митну територію України природного газу" (проект Закону № 3853-1 від 14.01.2014 р.);     "Про внесення змін до Закону України "Про усунення негативних наслідків та недопущення переслідування та покарання осіб з приводу подій, які мали місце під час проведення мирних зібрань" (проект Закону № 3893 від 16.01.2014 р.).</t>
+  </si>
+  <si>
+    <t>#t1.t</t>
+  </si>
+  <si>
+    <t>http://zno.academia.in.ua/pluginfile.php/11198/mod_book/chapter/1085/%20%D1%81%D1%83%D1%82%D0%B8%D1%87%D0%BA%D0%B8%20%D0%B2%20%D1%86%D0%B5%D0%BD%D1%82%D1%80%D1%96%20%D0%9A%D0%B8%D1%94%D0%B2%D0%B0.%2019%20%D0%BB%D1%8E%D1%82%D0%BE%D0%B3%D0%BE.%20%D0%A4%D0%BE%D1%82%D0%BE%20Reuters_2.jpg</t>
+  </si>
+  <si>
+    <t>http://amnesty.org.ua/wp-content/uploads/2015/03/479693233-e1426660509434-728x462.jpg</t>
+  </si>
+  <si>
+    <t>https://uk.wikipedia.org/wiki/%D0%A0%D0%B5%D0%B2%D0%BE%D0%BB%D1%8E%D1%86%D1%96%D1%8F_%D0%B3%D1%96%D0%B4%D0%BD%D0%BE%D1%81%D1%82%D1%96</t>
+  </si>
+  <si>
+    <t>https://uk.wikipedia.org/wiki/%D0%90%D0%BD%D0%B5%D0%BA%D1%81%D1%96%D1%8F_%D0%9A%D1%80%D0%B8%D0%BC%D1%83_%D0%A0%D0%BE%D1%81%D1%96%D1%94%D1%8E_(2014)</t>
+  </si>
+  <si>
+    <t>Підписання угоди про перемир’я Мінськ 2</t>
+  </si>
+  <si>
+    <t>http://ipress.ua/media/gallery/full/b/o/boeing_777_malaysia_airlines.jpg</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,10 +1159,10 @@
         <v>27</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>6</v>
@@ -1155,15 +1176,18 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
@@ -1171,15 +1195,21 @@
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -1187,15 +1217,21 @@
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
@@ -1203,7 +1239,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -1211,35 +1247,38 @@
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>41</v>
@@ -1247,7 +1286,7 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -1255,7 +1294,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
@@ -1263,7 +1302,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>44</v>
@@ -1271,7 +1310,7 @@
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>45</v>
@@ -1279,7 +1318,7 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -1287,146 +1326,146 @@
     </row>
     <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,10 +1647,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,252 +1658,263 @@
         <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
+      <c r="C39" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E846"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1910,457 +1960,457 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="190">
   <si>
     <t>key</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>http://ipress.ua/media/gallery/full/b/o/boeing_777_malaysia_airlines.jpg</t>
+  </si>
+  <si>
+    <t>bla  bla bla</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1195,9 @@
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1478,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1934,7 @@
   <dimension ref="A1:E846"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="192">
   <si>
     <t>key</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>bla  bla bla</t>
+  </si>
+  <si>
+    <t>dataset.id</t>
+  </si>
+  <si>
+    <t>609e3c20-afd0-11e6-88fa-e338112cb673</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,81 +1054,89 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1135,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.6.xlsx
@@ -600,7 +600,7 @@
     <t>dataset.id</t>
   </si>
   <si>
-    <t>609e3c20-afd0-11e6-88fa-e338112cb673</t>
+    <t>4efcac60-aff1-11e6-bf26-9bee11936d1b</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
